--- a/type_hint/cau3.xlsx
+++ b/type_hint/cau3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Return/type</t>
   </si>
@@ -43,18 +43,12 @@
   <si>
     <t>NULL</t>
   </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,20 +56,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -105,12 +98,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -396,7 +392,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,103 +421,103 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
